--- a/_09_PtmConvTest/Графики.xlsx
+++ b/_09_PtmConvTest/Графики.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>--------------Характеристики расчетной сетки----------------</t>
   </si>
@@ -38,17 +38,35 @@
   <si>
     <t>байт</t>
   </si>
+  <si>
+    <t>GPU</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>GPU/CPU</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
       <scheme val="minor"/>
     </font>
   </fonts>
@@ -72,8 +90,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -86,6 +106,930 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.18818985419464707"/>
+          <c:y val="3.0725804844014753E-2"/>
+          <c:w val="0.74916651304874515"/>
+          <c:h val="0.80369899332203731"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$U$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$S$29:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$T$29:$T$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>2.5</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>21.5</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>107</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>128</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$T$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$S$29:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$U$29:$U$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>3</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>26</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>126</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>149</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="48630784"/>
+        <c:axId val="48629248"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="48630784"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48629248"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="15000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="48629248"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="150"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="48630784"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="25"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76141644794400698"/>
+          <c:y val="0.68199847171002359"/>
+          <c:w val="0.1067783249501839"/>
+          <c:h val="0.12207874015748031"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="ru-RU"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:autoTitleDeleted val="1"/>
+    <c:plotArea>
+      <c:layout>
+        <c:manualLayout>
+          <c:layoutTarget val="inner"/>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.22832363345886111"/>
+          <c:y val="3.0725804844014753E-2"/>
+          <c:w val="0.70903273378453102"/>
+          <c:h val="0.80369899332203731"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:scatterChart>
+        <c:scatterStyle val="smoothMarker"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Лист1!$V$28</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>GPU/CPU</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:marker>
+            <c:symbol val="none"/>
+          </c:marker>
+          <c:trendline>
+            <c:spPr>
+              <a:ln w="38100"/>
+            </c:spPr>
+            <c:trendlineType val="linear"/>
+            <c:dispRSqr val="0"/>
+            <c:dispEq val="0"/>
+          </c:trendline>
+          <c:xVal>
+            <c:numRef>
+              <c:f>Лист1!$S$29:$S$32</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>1000</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>10000</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50000</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>60000</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:xVal>
+          <c:yVal>
+            <c:numRef>
+              <c:f>Лист1!$V$29:$V$32</c:f>
+              <c:numCache>
+                <c:formatCode>0.00</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.83333333333333337</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.82692307692307687</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.84920634920634919</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.85906040268456374</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:yVal>
+          <c:smooth val="1"/>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:axId val="317750272"/>
+        <c:axId val="329779840"/>
+      </c:scatterChart>
+      <c:valAx>
+        <c:axId val="317750272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+          <c:max val="60000"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="329779840"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+        <c:majorUnit val="15000"/>
+      </c:valAx>
+      <c:valAx>
+        <c:axId val="329779840"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="0.00" sourceLinked="1"/>
+        <c:majorTickMark val="out"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400">
+                <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+                <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="ru-RU"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="317750272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="midCat"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:layout>
+        <c:manualLayout>
+          <c:xMode val="edge"/>
+          <c:yMode val="edge"/>
+          <c:x val="0.76141644794400698"/>
+          <c:y val="0.68199847171002359"/>
+          <c:w val="0.1067783249501839"/>
+          <c:h val="0.12207874015748031"/>
+        </c:manualLayout>
+      </c:layout>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+  <c:userShapes r:id="rId1"/>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>466725</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>23</xdr:col>
+      <xdr:colOff>66675</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="2" name="Диаграмма 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>24</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>36</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>33</xdr:col>
+      <xdr:colOff>209550</xdr:colOff>
+      <xdr:row>55</xdr:row>
+      <xdr:rowOff>152400</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="3" name="Диаграмма 2"/>
+        <xdr:cNvGraphicFramePr>
+          <a:graphicFrameLocks/>
+        </xdr:cNvGraphicFramePr>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79375</cdr:x>
+      <cdr:y>0.91899</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99375</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3629025" y="3457575"/>
+          <a:ext cx="914400" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88958</cdr:x>
+      <cdr:y>0.90886</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.9924</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5067023" y="3419474"/>
+          <a:ext cx="628927" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="-25000">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400" baseline="-25000">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.04895</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.12153</cdr:x>
+      <cdr:y>0.13249</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="50800" y="184150"/>
+          <a:ext cx="504825" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>t, </a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="ru-RU" sz="1400">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>мс</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400" baseline="-25000">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
+</file>
+
+<file path=xl/drawings/drawing3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:userShapes xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.79375</cdr:x>
+      <cdr:y>0.91899</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.99375</cdr:x>
+      <cdr:y>1</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="3" name="TextBox 2"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="3629025" y="3457575"/>
+          <a:ext cx="914400" cy="304800"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:endParaRPr lang="ru-RU" sz="1100"/>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.88958</cdr:x>
+      <cdr:y>0.90886</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>1</cdr:x>
+      <cdr:y>0.9924</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="4" name="TextBox 3"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="5067023" y="3419474"/>
+          <a:ext cx="628927" cy="314325"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" vertOverflow="clip" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main"/>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>N</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="-25000">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>y</a:t>
+          </a:r>
+          <a:endParaRPr lang="ru-RU" sz="1400" baseline="-25000">
+            <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+          </a:endParaRPr>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+  <cdr:relSizeAnchor xmlns:cdr="http://schemas.openxmlformats.org/drawingml/2006/chartDrawing">
+    <cdr:from>
+      <cdr:x>0.01111</cdr:x>
+      <cdr:y>0.03376</cdr:y>
+    </cdr:from>
+    <cdr:to>
+      <cdr:x>0.12153</cdr:x>
+      <cdr:y>0.1173</cdr:y>
+    </cdr:to>
+    <cdr:sp macro="" textlink="">
+      <cdr:nvSpPr>
+        <cdr:cNvPr id="5" name="TextBox 1"/>
+        <cdr:cNvSpPr txBox="1"/>
+      </cdr:nvSpPr>
+      <cdr:spPr>
+        <a:xfrm xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:off x="63282" y="127018"/>
+          <a:ext cx="628947" cy="314309"/>
+        </a:xfrm>
+        <a:prstGeom xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </cdr:spPr>
+      <cdr:txBody>
+        <a:bodyPr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" wrap="none" rtlCol="0"/>
+        <a:lstStyle xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:lvl1pPr marL="0" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl1pPr>
+          <a:lvl2pPr marL="457200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl2pPr>
+          <a:lvl3pPr marL="914400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl3pPr>
+          <a:lvl4pPr marL="1371600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl4pPr>
+          <a:lvl5pPr marL="1828800" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl5pPr>
+          <a:lvl6pPr marL="2286000" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl6pPr>
+          <a:lvl7pPr marL="2743200" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl7pPr>
+          <a:lvl8pPr marL="3200400" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl8pPr>
+          <a:lvl9pPr marL="3657600" indent="0">
+            <a:defRPr sz="1100">
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:lvl9pPr>
+        </a:lstStyle>
+        <a:p xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="-25000">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>GPU</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>/t</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1400" baseline="-25000">
+              <a:latin typeface="Times New Roman" pitchFamily="18" charset="0"/>
+              <a:cs typeface="Times New Roman" pitchFamily="18" charset="0"/>
+            </a:rPr>
+            <a:t>CPU</a:t>
+          </a:r>
+        </a:p>
+      </cdr:txBody>
+    </cdr:sp>
+  </cdr:relSizeAnchor>
+</c:userShapes>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,10 +1319,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A23:L38"/>
+  <dimension ref="A23:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
-      <selection activeCell="I37" sqref="I37"/>
+    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
+      <selection activeCell="Z28" sqref="Z28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -389,42 +1333,79 @@
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>5</v>
       </c>
+      <c r="T28" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="U28" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="V28" s="1" t="s">
+        <v>9</v>
+      </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="S29" s="1">
+        <v>1000</v>
+      </c>
+      <c r="T29">
+        <v>2.5</v>
+      </c>
+      <c r="U29">
+        <v>3</v>
+      </c>
+      <c r="V29" s="2">
+        <f>T29/U29</f>
+        <v>0.83333333333333337</v>
+      </c>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
       <c r="F30" t="s">
         <v>6</v>
       </c>
+      <c r="S30" s="1">
+        <v>10000</v>
+      </c>
+      <c r="T30">
+        <v>21.5</v>
+      </c>
+      <c r="U30">
+        <v>26</v>
+      </c>
+      <c r="V30" s="2">
+        <f t="shared" ref="V30:V32" si="0">T30/U30</f>
+        <v>0.82692307692307687</v>
+      </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
       <c r="E31">
         <v>5</v>
       </c>
@@ -446,11 +1427,37 @@
         <f>I31/(1024*1024*1024)</f>
         <v>0.37625432014465332</v>
       </c>
+      <c r="S31" s="1">
+        <v>50000</v>
+      </c>
+      <c r="T31">
+        <v>107</v>
+      </c>
+      <c r="U31">
+        <v>126</v>
+      </c>
+      <c r="V31" s="2">
+        <f t="shared" si="0"/>
+        <v>0.84920634920634919</v>
+      </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
       <c r="L32">
         <f>1024*1024*128/5</f>
         <v>26843545.600000001</v>
+      </c>
+      <c r="S32" s="1">
+        <v>60000</v>
+      </c>
+      <c r="T32">
+        <v>128</v>
+      </c>
+      <c r="U32">
+        <v>149</v>
+      </c>
+      <c r="V32" s="2">
+        <f t="shared" si="0"/>
+        <v>0.85906040268456374</v>
       </c>
     </row>
     <row r="33" spans="9:12" x14ac:dyDescent="0.25">
@@ -472,6 +1479,8 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 

--- a/_09_PtmConvTest/Графики.xlsx
+++ b/_09_PtmConvTest/Графики.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
   <si>
     <t>--------------Характеристики расчетной сетки----------------</t>
   </si>
@@ -46,6 +46,12 @@
   </si>
   <si>
     <t>GPU/CPU</t>
+  </si>
+  <si>
+    <t xml:space="preserve">SharedMemorySize </t>
+  </si>
+  <si>
+    <t>ограничение CUDA на количество потоков в одном блоке</t>
   </si>
 </sst>
 </file>
@@ -268,11 +274,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="48630784"/>
-        <c:axId val="48629248"/>
+        <c:axId val="250171392"/>
+        <c:axId val="250172928"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="48630784"/>
+        <c:axId val="250171392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -296,13 +302,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48629248"/>
+        <c:crossAx val="250172928"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="48629248"/>
+        <c:axId val="250172928"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="150"/>
@@ -327,7 +333,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="48630784"/>
+        <c:crossAx val="250171392"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="25"/>
@@ -467,11 +473,11 @@
           <c:showPercent val="0"/>
           <c:showBubbleSize val="0"/>
         </c:dLbls>
-        <c:axId val="317750272"/>
-        <c:axId val="329779840"/>
+        <c:axId val="250211712"/>
+        <c:axId val="250086528"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="317750272"/>
+        <c:axId val="250211712"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:max val="60000"/>
@@ -495,13 +501,13 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="329779840"/>
+        <c:crossAx val="250086528"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
         <c:majorUnit val="15000"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="329779840"/>
+        <c:axId val="250086528"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -525,7 +531,7 @@
             <a:endParaRPr lang="ru-RU"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="317750272"/>
+        <c:crossAx val="250211712"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
@@ -1319,10 +1325,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A23:V38"/>
+  <dimension ref="A2:V38"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="I19" workbookViewId="0">
-      <selection activeCell="Z28" sqref="Z28"/>
+    <sheetView tabSelected="1" topLeftCell="I1" workbookViewId="0">
+      <selection activeCell="Q9" sqref="Q9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1333,6 +1339,45 @@
     <col min="12" max="12" width="17.42578125" customWidth="1"/>
   </cols>
   <sheetData>
+    <row r="2" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="I2" t="s">
+        <v>10</v>
+      </c>
+      <c r="K2">
+        <v>49152</v>
+      </c>
+      <c r="L2">
+        <f>K2/8</f>
+        <v>6144</v>
+      </c>
+      <c r="M2">
+        <f>L2/4</f>
+        <v>1536</v>
+      </c>
+    </row>
+    <row r="4" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="M4">
+        <v>256</v>
+      </c>
+      <c r="N4">
+        <v>4</v>
+      </c>
+      <c r="O4">
+        <f>M4*N4</f>
+        <v>1024</v>
+      </c>
+      <c r="P4" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="5" spans="9:16" x14ac:dyDescent="0.25">
+      <c r="M5">
+        <v>128</v>
+      </c>
+      <c r="N5">
+        <v>8</v>
+      </c>
+    </row>
     <row r="23" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>0</v>
